--- a/dist/document/dest/2020/10/doctors/66.xlsx
+++ b/dist/document/dest/2020/10/doctors/66.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>32200</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>135</v>
       </c>
-      <c r="C3" s="1">
-        <v>1039500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>3498</v>
       </c>
-      <c r="C4" s="1">
-        <v>12068100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>3326</v>
       </c>
-      <c r="C5" s="1">
-        <v>25244340</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>45</v>
       </c>
-      <c r="C6" s="1">
-        <v>204300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>138600</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>260000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>2503</v>
       </c>
-      <c r="C9" s="1">
-        <v>63325900</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>31000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>422</v>
       </c>
-      <c r="C11" s="1">
-        <v>6963000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1">
-        <v>34500</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>64900</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>47</v>
       </c>
-      <c r="C14" s="1">
-        <v>12572500</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>3088</v>
       </c>
-      <c r="C15" s="1">
-        <v>11718960</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>100</v>
       </c>
-      <c r="C16" s="1">
-        <v>1760000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>106950</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="1">
-        <v>561000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <v>37200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>285</v>
       </c>
-      <c r="C20" s="1">
-        <v>3605250</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>65</v>
       </c>
-      <c r="C21" s="1">
-        <v>65000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>210</v>
       </c>
-      <c r="C22" s="1">
-        <v>3465000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="C23" s="1">
-        <v>72450</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
-        <v>25000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>1115</v>
       </c>
-      <c r="C25" s="1">
-        <v>20114600</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
-        <v>12300</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>10</v>
       </c>
-      <c r="C27" s="1">
-        <v>82280</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -691,7 +613,7 @@
         <v>15015</v>
       </c>
       <c r="C28" s="1">
-        <v>163604830</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/66.xlsx
+++ b/dist/document/dest/2020/10/doctors/66.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B2" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>49800</v>
       </c>
     </row>
     <row r="3">
@@ -410,215 +413,818 @@
         <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B3" s="1">
-        <v>135</v>
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B4" s="1">
-        <v>3498</v>
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B5" s="1">
-        <v>3326</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B6" s="1">
-        <v>45</v>
+        <v>180</v>
+      </c>
+      <c r="C6" s="1">
+        <v>621000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B7" s="1">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="1">
+        <v>155250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Celebrex (Celecoxib 200mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B8" s="1">
-        <v>20</v>
+        <v>246</v>
+      </c>
+      <c r="C8" s="1">
+        <v>848700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Chè trĩ BTIKG</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B9" s="1">
-        <v>2503</v>
+        <v>111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>382950</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Efferalgan Sủi 500mg</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>291</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1003950</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B11" s="1">
-        <v>422</v>
+        <v>1607</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5544150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>177</v>
+      </c>
+      <c r="C12" s="1">
+        <v>610650</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve">Fleet Enema 133ml (bơm) </v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1242000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+        <v>Baifem K (Baicalin,vogonin)</v>
       </c>
       <c r="B14" s="1">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>169000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B15" s="1">
-        <v>3088</v>
+        <v>135</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1024650</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B16" s="1">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>341550</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>246</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1867140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B18" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="1">
+        <v>683100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Nizoral Cream 10g (Ketoconazole)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1867140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B20" s="1">
-        <v>285</v>
+        <v>1427</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10830930</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B21" s="1">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="C21" s="1">
+        <v>660330</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B22" s="1">
-        <v>210</v>
+        <v>360</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2732400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Bisolvon 8 (Bromhexine 8mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Tempovat Pm</v>
+        <v>Celebrex (Celecoxib 200mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>195000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>1115</v>
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>34040</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Chè trĩ BTIKG</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3415500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Zyrtec 10 (Cetirizine)</v>
+        <v>Chè trĩ BTIKG</v>
       </c>
       <c r="B27" s="1">
-        <v>10</v>
+        <v>245</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6198500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>Chè trĩ BTIKG</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Chè trĩ BTIKG</v>
+      </c>
+      <c r="B29" s="1">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2175800</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Chè trĩ BTIKG</v>
+      </c>
+      <c r="B30" s="1">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2808300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Chè trĩ BTIKG</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1224</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30967200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Chè trĩ BTIKG</v>
+      </c>
+      <c r="B32" s="1">
+        <v>177</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4478100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Chè trĩ BTIKG</v>
+      </c>
+      <c r="B33" s="1">
+        <v>225</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5692500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Cilavef (Celecoxib 200mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>490875</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1">
+        <v>294525</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>225</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1472625</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Duphalac (Iactulose)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Glucophage 850mg (Metformin)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>122700</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Glucophage 850mg (Metformin)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>122700</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>802500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1070000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>267500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>535000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>802500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4012500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>535000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1337500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>180</v>
+      </c>
+      <c r="C49" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>291</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1104345</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1">
+        <v>170775</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>291</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1104345</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1">
+        <v>421245</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1532</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5813940</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>177</v>
+      </c>
+      <c r="C55" s="1">
+        <v>671715</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>180</v>
+      </c>
+      <c r="C56" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1232000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>53475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1">
+        <v>112200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>155</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2557500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>180</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2970000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>585</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10553400</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>58</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1046320</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>541200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1082400</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>541200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1623600</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>104</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1876160</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2958560</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Xatral XL(Alfuzosine 10mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>176600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B28" s="1">
-        <v>15015</v>
-      </c>
-      <c r="C28" s="1">
-        <v>NaN</v>
+      <c r="B76" s="1">
+        <v>13241</v>
+      </c>
+      <c r="C76" s="1">
+        <v>142326785</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C76"/>
   </ignoredErrors>
 </worksheet>
 </file>